--- a/MinitabApp/Resources/Test.xlsx
+++ b/MinitabApp/Resources/Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\MinitabApp\MinitabApp\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA285D51-F5D9-42BC-9CC9-8FBCDA93D31E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F61254-B23A-4EFD-A37C-6509E90811AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="9">
+  <si>
+    <t>Station</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
   <si>
     <t>Operator</t>
+  </si>
+  <si>
+    <t>EC7</t>
+  </si>
+  <si>
+    <t>EC13</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>AAA1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
+    <t xml:space="preserve">EC 1 /@ FoVo [V] </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -47,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +74,39 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,13 +126,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{03CD806A-DFB3-471E-9182-B5045B42196E}"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{A41419AD-0814-43BE-AECD-EF2DB90A079E}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -365,67 +428,2108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1.22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>6.19</v>
+      </c>
+      <c r="F2">
+        <v>406.46</v>
+      </c>
+      <c r="G2">
+        <v>396.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="F3">
+        <v>392.19</v>
+      </c>
+      <c r="G3">
+        <v>397.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6.19</v>
+      </c>
+      <c r="F4">
+        <v>399.65</v>
+      </c>
+      <c r="G4">
+        <v>382.73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>2.2999999999999998</v>
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6.23</v>
+      </c>
+      <c r="F5">
+        <v>414.74</v>
+      </c>
+      <c r="G5">
+        <v>393.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6.23</v>
+      </c>
+      <c r="F6">
+        <v>408.59</v>
+      </c>
+      <c r="G6">
+        <v>416.54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6.23</v>
+      </c>
+      <c r="F7">
+        <v>422.04</v>
+      </c>
+      <c r="G7">
+        <v>404.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2">
+        <v>6.22</v>
+      </c>
+      <c r="F8">
+        <v>417.86</v>
+      </c>
+      <c r="G8">
+        <v>410.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
+        <v>6.23</v>
+      </c>
+      <c r="F9">
+        <v>403.85</v>
+      </c>
+      <c r="G9">
+        <v>392.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6.22</v>
+      </c>
+      <c r="F10">
+        <v>416.18</v>
+      </c>
+      <c r="G10">
+        <v>407.41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="F11">
+        <v>415.91</v>
+      </c>
+      <c r="G11">
+        <v>408.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>6.19</v>
+      </c>
+      <c r="F12">
+        <v>419.6</v>
+      </c>
+      <c r="G12">
+        <v>386.93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="F13">
+        <v>420.4</v>
+      </c>
+      <c r="G13">
+        <v>403.81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2">
+        <v>38</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>6.21</v>
+      </c>
+      <c r="F14">
+        <v>396.37</v>
+      </c>
+      <c r="G14">
+        <v>389.71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2">
+        <v>38</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>6.21</v>
+      </c>
+      <c r="F15">
+        <v>402.94</v>
+      </c>
+      <c r="G15">
+        <v>405.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>6.22</v>
+      </c>
+      <c r="F16">
+        <v>427.66</v>
+      </c>
+      <c r="G16">
+        <v>402.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>6.21</v>
+      </c>
+      <c r="F17">
+        <v>408.64</v>
+      </c>
+      <c r="G17">
+        <v>388.59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2">
+        <v>38</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3</v>
+      </c>
+      <c r="E18" s="2">
+        <v>6.22</v>
+      </c>
+      <c r="F18">
+        <v>415.26</v>
+      </c>
+      <c r="G18">
+        <v>411.88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2">
+        <v>6.22</v>
+      </c>
+      <c r="F19">
+        <v>398.41</v>
+      </c>
+      <c r="G19">
+        <v>404.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2">
+        <v>110</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>6.26</v>
+      </c>
+      <c r="F20">
+        <v>404.35</v>
+      </c>
+      <c r="G20">
+        <v>393.68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <v>110</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>6.26</v>
+      </c>
+      <c r="F21">
+        <v>395.84</v>
+      </c>
+      <c r="G21">
+        <v>391.71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2">
+        <v>110</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>6.26</v>
+      </c>
+      <c r="F22">
+        <v>393.53</v>
+      </c>
+      <c r="G22">
+        <v>397.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2">
+        <v>110</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>6.33</v>
+      </c>
+      <c r="F23">
+        <v>400.63</v>
+      </c>
+      <c r="G23">
+        <v>388.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2">
+        <v>110</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="F24">
+        <v>408.33</v>
+      </c>
+      <c r="G24">
+        <v>384.33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2">
+        <v>110</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>6.29</v>
+      </c>
+      <c r="F25">
+        <v>406.71</v>
+      </c>
+      <c r="G25">
+        <v>397.59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2">
+        <v>110</v>
+      </c>
+      <c r="D26" s="2">
+        <v>3</v>
+      </c>
+      <c r="E26" s="2">
+        <v>6.28</v>
+      </c>
+      <c r="F26">
+        <v>402.22</v>
+      </c>
+      <c r="G26">
+        <v>414.92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2">
+        <v>110</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2">
+        <v>6.28</v>
+      </c>
+      <c r="F27">
+        <v>392.57</v>
+      </c>
+      <c r="G27">
+        <v>397.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2">
+        <v>110</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>6.29</v>
+      </c>
+      <c r="F28">
+        <v>399.16</v>
+      </c>
+      <c r="G28">
+        <v>382.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2">
+        <v>111</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>6.26</v>
+      </c>
+      <c r="F29">
+        <v>416.47</v>
+      </c>
+      <c r="G29">
+        <v>393.08</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2">
+        <v>111</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>6.25</v>
+      </c>
+      <c r="F30">
+        <v>410.06</v>
+      </c>
+      <c r="G30">
+        <v>416.61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2">
+        <v>111</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>6.26</v>
+      </c>
+      <c r="F31">
+        <v>422.99</v>
+      </c>
+      <c r="G31">
+        <v>405.58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2">
+        <v>111</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2</v>
+      </c>
+      <c r="E32" s="2">
+        <v>6.28</v>
+      </c>
+      <c r="F32">
+        <v>420.07</v>
+      </c>
+      <c r="G32">
+        <v>412.13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2">
+        <v>111</v>
+      </c>
+      <c r="D33" s="2">
+        <v>2</v>
+      </c>
+      <c r="E33" s="2">
+        <v>6.28</v>
+      </c>
+      <c r="F33">
+        <v>405.29</v>
+      </c>
+      <c r="G33">
+        <v>393.55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="2">
+        <v>111</v>
+      </c>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>6.27</v>
+      </c>
+      <c r="F34">
+        <v>418.07</v>
+      </c>
+      <c r="G34">
+        <v>408.97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2">
+        <v>111</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2">
+        <v>6.29</v>
+      </c>
+      <c r="F35">
+        <v>417.94</v>
+      </c>
+      <c r="G35">
+        <v>410.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2">
+        <v>111</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2">
+        <v>6.29</v>
+      </c>
+      <c r="F36">
+        <v>419.51</v>
+      </c>
+      <c r="G36">
+        <v>386.64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2">
+        <v>111</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2">
+        <v>6.28</v>
+      </c>
+      <c r="F37">
+        <v>420.42</v>
+      </c>
+      <c r="G37">
+        <v>405.66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="2">
+        <v>337</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>6.12</v>
+      </c>
+      <c r="F38">
+        <v>396.36</v>
+      </c>
+      <c r="G38">
+        <v>389.51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="2">
+        <v>337</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>6.12</v>
+      </c>
+      <c r="F39">
+        <v>402.97</v>
+      </c>
+      <c r="G39">
+        <v>407.06</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="2">
+        <v>337</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>6.13</v>
+      </c>
+      <c r="F40">
+        <v>427.76</v>
+      </c>
+      <c r="G40">
+        <v>402.71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2">
+        <v>337</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2</v>
+      </c>
+      <c r="E41" s="2">
+        <v>6.19</v>
+      </c>
+      <c r="F41">
+        <v>409.8</v>
+      </c>
+      <c r="G41">
+        <v>388.46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2">
+        <v>337</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2">
+        <v>6.15</v>
+      </c>
+      <c r="F42">
+        <v>417.26</v>
+      </c>
+      <c r="G42">
+        <v>411.48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="2">
+        <v>337</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2">
+        <v>6.15</v>
+      </c>
+      <c r="F43">
+        <v>398.33</v>
+      </c>
+      <c r="G43">
+        <v>406.24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2">
+        <v>337</v>
+      </c>
+      <c r="D44" s="2">
+        <v>3</v>
+      </c>
+      <c r="E44" s="2">
+        <v>6.17</v>
+      </c>
+      <c r="F44">
+        <v>406.04</v>
+      </c>
+      <c r="G44">
+        <v>395.26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2">
+        <v>337</v>
+      </c>
+      <c r="D45" s="2">
+        <v>3</v>
+      </c>
+      <c r="E45" s="2">
+        <v>6.17</v>
+      </c>
+      <c r="F45">
+        <v>395.71</v>
+      </c>
+      <c r="G45">
+        <v>391.37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="2">
+        <v>337</v>
+      </c>
+      <c r="D46" s="2">
+        <v>3</v>
+      </c>
+      <c r="E46" s="2">
+        <v>6.16</v>
+      </c>
+      <c r="F46">
+        <v>393.48</v>
+      </c>
+      <c r="G46">
+        <v>397.69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="2">
+        <v>340</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>6.16</v>
+      </c>
+      <c r="F47">
+        <v>402.17</v>
+      </c>
+      <c r="G47">
+        <v>389.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="2">
+        <v>340</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
+        <v>6.17</v>
+      </c>
+      <c r="F48">
+        <v>410.28</v>
+      </c>
+      <c r="G48">
+        <v>384.12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="2">
+        <v>340</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
+        <v>6.17</v>
+      </c>
+      <c r="F49">
+        <v>408.45</v>
+      </c>
+      <c r="G49">
+        <v>399.27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="2">
+        <v>340</v>
+      </c>
+      <c r="D50" s="2">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="F50">
+        <v>402.46</v>
+      </c>
+      <c r="G50">
+        <v>416.81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="2">
+        <v>340</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2</v>
+      </c>
+      <c r="E51" s="2">
+        <v>6.19</v>
+      </c>
+      <c r="F51">
+        <v>404.38</v>
+      </c>
+      <c r="G51">
+        <v>396.13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="2">
+        <v>340</v>
+      </c>
+      <c r="D52" s="2">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2">
+        <v>6.18</v>
+      </c>
+      <c r="F52">
+        <v>392.48</v>
+      </c>
+      <c r="G52">
+        <v>397.14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="2">
+        <v>340</v>
+      </c>
+      <c r="D53" s="2">
+        <v>3</v>
+      </c>
+      <c r="E53" s="2">
+        <v>6.19</v>
+      </c>
+      <c r="F53">
+        <v>399.8</v>
+      </c>
+      <c r="G53">
+        <v>382.98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="2">
+        <v>340</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3</v>
+      </c>
+      <c r="E54" s="2">
+        <v>6.19</v>
+      </c>
+      <c r="F54">
+        <v>417.3</v>
+      </c>
+      <c r="G54">
+        <v>393.91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="2">
+        <v>340</v>
+      </c>
+      <c r="D55" s="2">
+        <v>3</v>
+      </c>
+      <c r="E55" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="F55">
+        <v>410.75</v>
+      </c>
+      <c r="G55">
+        <v>416.36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="2">
+        <v>421</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2">
+        <v>6.13</v>
+      </c>
+      <c r="F56">
+        <v>422.93</v>
+      </c>
+      <c r="G56">
+        <v>406.59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="2">
+        <v>421</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2">
+        <v>6.15</v>
+      </c>
+      <c r="F57">
+        <v>421.35</v>
+      </c>
+      <c r="G57">
+        <v>413.27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="2">
+        <v>421</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2">
+        <v>6.14</v>
+      </c>
+      <c r="F58">
+        <v>404.41</v>
+      </c>
+      <c r="G58">
+        <v>393.02</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="2">
+        <v>421</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2</v>
+      </c>
+      <c r="E59" s="2">
+        <v>6.17</v>
+      </c>
+      <c r="F59">
+        <v>419.07</v>
+      </c>
+      <c r="G59">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="2">
+        <v>421</v>
+      </c>
+      <c r="D60" s="2">
+        <v>2</v>
+      </c>
+      <c r="E60" s="2">
+        <v>6.16</v>
+      </c>
+      <c r="F60">
+        <v>419.05</v>
+      </c>
+      <c r="G60">
+        <v>411.78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="2">
+        <v>421</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2</v>
+      </c>
+      <c r="E61" s="2">
+        <v>6.14</v>
+      </c>
+      <c r="F61">
+        <v>419.53</v>
+      </c>
+      <c r="G61">
+        <v>386.64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="2">
+        <v>421</v>
+      </c>
+      <c r="D62" s="2">
+        <v>3</v>
+      </c>
+      <c r="E62" s="2">
+        <v>6.16</v>
+      </c>
+      <c r="F62">
+        <v>420.48</v>
+      </c>
+      <c r="G62">
+        <v>406.72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="2">
+        <v>421</v>
+      </c>
+      <c r="D63" s="2">
+        <v>3</v>
+      </c>
+      <c r="E63" s="2">
+        <v>6.16</v>
+      </c>
+      <c r="F63">
+        <v>396.45</v>
+      </c>
+      <c r="G63">
+        <v>389.62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="2">
+        <v>421</v>
+      </c>
+      <c r="D64" s="2">
+        <v>3</v>
+      </c>
+      <c r="E64" s="2">
+        <v>6.16</v>
+      </c>
+      <c r="F64">
+        <v>402.13</v>
+      </c>
+      <c r="G64">
+        <v>408.24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="2">
+        <v>422</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2">
+        <v>6.34</v>
+      </c>
+      <c r="F65">
+        <v>427.95</v>
+      </c>
+      <c r="G65">
+        <v>402.91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="2">
+        <v>422</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2">
+        <v>6.34</v>
+      </c>
+      <c r="F66">
+        <v>410.35</v>
+      </c>
+      <c r="G66">
+        <v>388.06</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="2">
+        <v>422</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2">
+        <v>6.37</v>
+      </c>
+      <c r="F67">
+        <v>418.24</v>
+      </c>
+      <c r="G67">
+        <v>411.46</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="2">
+        <v>422</v>
+      </c>
+      <c r="D68" s="2">
+        <v>2</v>
+      </c>
+      <c r="E68" s="2">
+        <v>6.36</v>
+      </c>
+      <c r="F68">
+        <v>398.4</v>
+      </c>
+      <c r="G68">
+        <v>407.33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="2">
+        <v>422</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2</v>
+      </c>
+      <c r="E69" s="2">
+        <v>6.36</v>
+      </c>
+      <c r="F69">
+        <v>406.91</v>
+      </c>
+      <c r="G69">
+        <v>395.98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="2">
+        <v>422</v>
+      </c>
+      <c r="D70" s="2">
+        <v>2</v>
+      </c>
+      <c r="E70" s="2">
+        <v>6.36</v>
+      </c>
+      <c r="F70">
+        <v>395.74</v>
+      </c>
+      <c r="G70">
+        <v>391.42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="2">
+        <v>422</v>
+      </c>
+      <c r="D71" s="2">
+        <v>3</v>
+      </c>
+      <c r="E71" s="2">
+        <v>6.4</v>
+      </c>
+      <c r="F71">
+        <v>393.59</v>
+      </c>
+      <c r="G71">
+        <v>397.77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="2">
+        <v>422</v>
+      </c>
+      <c r="D72" s="2">
+        <v>3</v>
+      </c>
+      <c r="E72" s="2">
+        <v>6.39</v>
+      </c>
+      <c r="F72">
+        <v>403.04</v>
+      </c>
+      <c r="G72">
+        <v>390.38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="2">
+        <v>422</v>
+      </c>
+      <c r="D73" s="2">
+        <v>3</v>
+      </c>
+      <c r="E73" s="2">
+        <v>6.38</v>
+      </c>
+      <c r="F73">
+        <v>411.35</v>
+      </c>
+      <c r="G73">
+        <v>384.55</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="2">
+        <v>423</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
+      <c r="E74" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="F74">
+        <v>409.41</v>
+      </c>
+      <c r="G74">
+        <v>400.19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="2">
+        <v>423</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+      <c r="E75" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="F75">
+        <v>402.67</v>
+      </c>
+      <c r="G75">
+        <v>418.04</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="2">
+        <v>423</v>
+      </c>
+      <c r="D76" s="2">
+        <v>1</v>
+      </c>
+      <c r="E76" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="F76">
+        <v>405.74</v>
+      </c>
+      <c r="G76">
+        <v>396.35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="4">
+        <v>423</v>
+      </c>
+      <c r="D77" s="5">
+        <v>2</v>
+      </c>
+      <c r="E77" s="4">
+        <v>6.14</v>
+      </c>
+      <c r="F77">
+        <v>418.24</v>
+      </c>
+      <c r="G77">
+        <v>411.46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="4">
+        <v>423</v>
+      </c>
+      <c r="D78" s="5">
+        <v>2</v>
+      </c>
+      <c r="E78" s="4">
+        <v>6.13</v>
+      </c>
+      <c r="F78">
+        <v>398.4</v>
+      </c>
+      <c r="G78">
+        <v>407.33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="4">
+        <v>423</v>
+      </c>
+      <c r="D79" s="5">
+        <v>2</v>
+      </c>
+      <c r="E79" s="4">
+        <v>6.14</v>
+      </c>
+      <c r="F79">
+        <v>406.91</v>
+      </c>
+      <c r="G79">
+        <v>395.98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="4">
+        <v>423</v>
+      </c>
+      <c r="D80" s="5">
+        <v>3</v>
+      </c>
+      <c r="E80" s="4">
+        <v>6.13</v>
+      </c>
+      <c r="F80">
+        <v>395.74</v>
+      </c>
+      <c r="G80">
+        <v>391.42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="4">
+        <v>423</v>
+      </c>
+      <c r="D81" s="5">
+        <v>3</v>
+      </c>
+      <c r="E81" s="4">
+        <v>6.14</v>
+      </c>
+      <c r="F81">
+        <v>393.59</v>
+      </c>
+      <c r="G81">
+        <v>397.77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="4">
+        <v>423</v>
+      </c>
+      <c r="D82" s="5">
+        <v>3</v>
+      </c>
+      <c r="E82" s="4">
+        <v>6.13</v>
+      </c>
+      <c r="F82">
+        <v>403.04</v>
+      </c>
+      <c r="G82">
+        <v>390.38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="4">
+        <v>442</v>
+      </c>
+      <c r="D83" s="5">
+        <v>1</v>
+      </c>
+      <c r="E83" s="4">
+        <v>6.24</v>
+      </c>
+      <c r="F83">
+        <v>411.35</v>
+      </c>
+      <c r="G83">
+        <v>384.55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="4">
+        <v>442</v>
+      </c>
+      <c r="D84" s="5">
+        <v>1</v>
+      </c>
+      <c r="E84" s="4">
+        <v>6.24</v>
+      </c>
+      <c r="F84">
+        <v>409.41</v>
+      </c>
+      <c r="G84">
+        <v>400.19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="4">
+        <v>442</v>
+      </c>
+      <c r="D85" s="5">
+        <v>1</v>
+      </c>
+      <c r="E85" s="4">
+        <v>6.24</v>
+      </c>
+      <c r="F85">
+        <v>402.67</v>
+      </c>
+      <c r="G85">
+        <v>418.04</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="4">
+        <v>442</v>
+      </c>
+      <c r="D86" s="5">
+        <v>2</v>
+      </c>
+      <c r="E86" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="F86">
+        <v>405.74</v>
+      </c>
+      <c r="G86">
+        <v>396.35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="4">
+        <v>442</v>
+      </c>
+      <c r="D87" s="5">
+        <v>2</v>
+      </c>
+      <c r="E87" s="4">
+        <v>6.28</v>
+      </c>
+      <c r="F87">
+        <v>410.75</v>
+      </c>
+      <c r="G87">
+        <v>416.36</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="4">
+        <v>442</v>
+      </c>
+      <c r="D88" s="5">
+        <v>2</v>
+      </c>
+      <c r="E88" s="4">
+        <v>6.28</v>
+      </c>
+      <c r="F88">
+        <v>422.93</v>
+      </c>
+      <c r="G88">
+        <v>406.59</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="4">
+        <v>442</v>
+      </c>
+      <c r="D89" s="5">
+        <v>3</v>
+      </c>
+      <c r="E89" s="4">
+        <v>6.28</v>
+      </c>
+      <c r="F89">
+        <v>421.35</v>
+      </c>
+      <c r="G89">
+        <v>413.27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="4">
+        <v>442</v>
+      </c>
+      <c r="D90" s="5">
+        <v>3</v>
+      </c>
+      <c r="E90" s="4">
+        <v>6.28</v>
+      </c>
+      <c r="F90">
+        <v>404.41</v>
+      </c>
+      <c r="G90">
+        <v>393.02</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="4">
+        <v>442</v>
+      </c>
+      <c r="D91" s="5">
+        <v>3</v>
+      </c>
+      <c r="E91" s="4">
+        <v>6.27</v>
+      </c>
+      <c r="F91">
+        <v>402.67</v>
+      </c>
+      <c r="G91">
+        <v>418.04</v>
       </c>
     </row>
   </sheetData>
